--- a/compitiRuzzleParty.xlsx
+++ b/compitiRuzzleParty.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteooriggi/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D58A3C7-C6D5-9A48-BB65-29BAC406882C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1928F17-82B5-0E40-9C23-63FDD8D3B1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="840" windowWidth="33600" windowHeight="19380" xr2:uid="{0FD4A732-7DFA-2841-B45E-201D61AE894C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19380" xr2:uid="{0FD4A732-7DFA-2841-B45E-201D61AE894C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>ELIA SAETTI</t>
   </si>
@@ -71,6 +71,22 @@
   <si>
     <t>Sviluppo grafica HTML CSS JS della 
 pagina di amministrazione server. (PACCHETTI DI DATI)</t>
+  </si>
+  <si>
+    <t>SVILUPPO LOGICA GIOCO (passaggio dati al server
+ per counter punteggio)</t>
+  </si>
+  <si>
+    <t>SVILUPPO LOGICA GIOCO 
+(logica js per animazioni gioco)</t>
+  </si>
+  <si>
+    <t>SVILUPPO LOGICA GIOCO 
+(Struttura tabella dimensioni e posizioni caselle)</t>
+  </si>
+  <si>
+    <t>SVILUPPO LOGICA GIOCO 
+(impostazioni, istruzioni e calcolo punteggi)</t>
   </si>
 </sst>
 </file>
@@ -476,7 +492,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -538,20 +554,20 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>6</v>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
